--- a/Funcionarios.xlsx
+++ b/Funcionarios.xlsx
@@ -469,7 +469,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:M1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -539,216 +539,10 @@
       <c r="L1" s="3" t="inlineStr"/>
       <c r="M1" s="4" t="inlineStr"/>
     </row>
-    <row r="2" ht="19.5" customHeight="1">
-      <c r="A2" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" s="5" t="inlineStr">
-        <is>
-          <t>Alfredo</t>
-        </is>
-      </c>
-      <c r="C2" s="6" t="inlineStr">
-        <is>
-          <t>Recepcionista</t>
-        </is>
-      </c>
-      <c r="D2" s="5" t="inlineStr">
-        <is>
-          <t>Administração</t>
-        </is>
-      </c>
-      <c r="E2" s="5" t="n">
-        <v>24</v>
-      </c>
-      <c r="F2" s="7" t="inlineStr">
-        <is>
-          <t>24/04/2001</t>
-        </is>
-      </c>
-      <c r="G2" s="5" t="inlineStr">
-        <is>
-          <t>alfredo.w.neto@aluno.senai.br</t>
-        </is>
-      </c>
-      <c r="H2" s="7" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
-      <c r="I2" s="8" t="inlineStr"/>
-      <c r="J2" s="8" t="inlineStr"/>
-      <c r="K2" s="8" t="inlineStr"/>
-      <c r="L2" s="8" t="inlineStr"/>
-      <c r="M2" s="5" t="n"/>
-    </row>
-    <row r="3" ht="19.5" customHeight="1">
-      <c r="A3" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" s="5" t="inlineStr">
-        <is>
-          <t>Breno</t>
-        </is>
-      </c>
-      <c r="C3" s="6" t="inlineStr">
-        <is>
-          <t>Qualidade</t>
-        </is>
-      </c>
-      <c r="D3" s="5" t="inlineStr">
-        <is>
-          <t>Qualidade</t>
-        </is>
-      </c>
-      <c r="E3" s="5" t="n">
-        <v>22</v>
-      </c>
-      <c r="F3" s="7" t="inlineStr">
-        <is>
-          <t>26/07/2002</t>
-        </is>
-      </c>
-      <c r="G3" s="5" t="inlineStr">
-        <is>
-          <t>breno.zein@aluno.senai.br</t>
-        </is>
-      </c>
-      <c r="H3" s="7" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
-      <c r="I3" s="8" t="inlineStr"/>
-      <c r="J3" s="8" t="inlineStr"/>
-      <c r="K3" s="8" t="inlineStr"/>
-      <c r="L3" s="8" t="inlineStr"/>
-      <c r="M3" s="5" t="n"/>
-    </row>
-    <row r="4" ht="19.5" customHeight="1">
-      <c r="A4" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" s="5" t="inlineStr">
-        <is>
-          <t>Carla</t>
-        </is>
-      </c>
-      <c r="C4" s="6" t="inlineStr">
-        <is>
-          <t>Contadora</t>
-        </is>
-      </c>
-      <c r="D4" s="5" t="inlineStr">
-        <is>
-          <t>Financeiro</t>
-        </is>
-      </c>
-      <c r="E4" s="5" t="n">
-        <v>30</v>
-      </c>
-      <c r="F4" s="8" t="inlineStr"/>
-      <c r="G4" s="5" t="inlineStr">
-        <is>
-          <t>carla.machado@aluno.senai.br</t>
-        </is>
-      </c>
-      <c r="H4" s="7" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="I4" s="8" t="inlineStr"/>
-      <c r="J4" s="8" t="inlineStr"/>
-      <c r="K4" s="8" t="inlineStr"/>
-      <c r="L4" s="8" t="inlineStr"/>
-      <c r="M4" s="5" t="n"/>
-    </row>
-    <row r="5" ht="19.5" customHeight="1">
-      <c r="A5" s="5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" s="5" t="inlineStr">
-        <is>
-          <t>Matheus</t>
-        </is>
-      </c>
-      <c r="C5" s="6" t="inlineStr">
-        <is>
-          <t>Vendedor</t>
-        </is>
-      </c>
-      <c r="D5" s="5" t="inlineStr">
-        <is>
-          <t>Vendas</t>
-        </is>
-      </c>
-      <c r="E5" s="5" t="n">
-        <v>21</v>
-      </c>
-      <c r="F5" s="7" t="inlineStr">
-        <is>
-          <t>14/02/2004</t>
-        </is>
-      </c>
-      <c r="G5" s="5" t="inlineStr">
-        <is>
-          <t>matheus.r.antonio@aluno.senai.br</t>
-        </is>
-      </c>
-      <c r="H5" s="7" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
-      <c r="I5" s="8" t="inlineStr"/>
-      <c r="J5" s="8" t="inlineStr"/>
-      <c r="K5" s="8" t="inlineStr"/>
-      <c r="L5" s="8" t="inlineStr"/>
-      <c r="M5" s="5" t="n"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>teste</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>teste</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>teste</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>teste</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>teste</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>teste</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>teste</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>teste</t>
-        </is>
-      </c>
-    </row>
+    <row r="2" ht="19.5" customHeight="1"/>
+    <row r="3" ht="19.5" customHeight="1"/>
+    <row r="4" ht="19.5" customHeight="1"/>
+    <row r="5" ht="19.5" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
